--- a/API/output.xlsx
+++ b/API/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:EI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Подтверждение почты</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Возраст</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Дата регистрации</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Фото</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Национальность</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Регион подачи (пользователя)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Наличие инвалидности</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий здоровья</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Группа инвалидности</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Форма инвалидности</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Наличие аллергических реакций</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Аллергены</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Размер одежды</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Питание</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО контактного лица</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Телефон контактного лица</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Активность</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Скан паспорта</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Гражданство</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Серия паспорта</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Номер паспорта</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Кем выдан паспорт</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Дата выдачи паспорта</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Дата окончания срока действия</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Код подразделения</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Населенный пункт</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Улица</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Место рождения</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Страна проживания</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Федеральный округ проживания</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Регион проживания</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Город проживания</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Улица проживания</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Дом проживания</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Почтовый индекс</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Организация</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Стаж</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Образования: степень, учебное заве</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Количество образований</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Языки: язык, уровень</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Количество языков</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Основная соцсеть</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>ВКонтакте</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Телеграм</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>ID участника</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Регион подачи (из заявки)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Мероприятие</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Часть мероприятия</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Родительская часть мероприятия</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Направление</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Родительское направление</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Дата подачи заявки</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Статус заявки</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий об участнике</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Палатка участника</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Номер команды участника</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Билет</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Сертификаты</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Получил ли грант</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий грантовой заявки</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Сумма гранта</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Название проекта</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий проекта</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Направление конкурса</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылки на медиаресурсы проекта</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Запрашиваемые документы</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Статус аккредитации</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Маркеры участия</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Тип участия</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Выбери направление - заявка</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Выбери регион - заявка</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Расскажи о своем творческом пути, профессиональном опыте, достижениях и успешных проектах - заявка</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Откуда ты узнал об арт-кластере «Таврида»? - заявка</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Принимал ли ты участие в проектах Тавриды ранее? - заявка</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Название проекта 1 - заявка</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Год 1 - заявка</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Роль 1 - заявка</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Задание 1 - заявка</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Название проекта 2 - заявка</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Год 2 - заявка</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Роль 2 - заявка</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Задачи 2 - заявка</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Название проекта 3 - заявка</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Год 3 - заявка</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Роль 3 - заявка</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Задачи 3 - заявка</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Творческое задание - заявка</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Видеовизитка - заявка</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Согласие на передачу, использование и обработку персональных данных и использование результатов интеллектуальной деятельност - заявка</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Маркер 1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Маркер 2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Общая оценка</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка - Эксперт</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка - Куратор</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка - Мониторинг (служба оценки)</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>кино</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>театр</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>мода</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>изобразительное искусство</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>музыка</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>литература</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>медиа</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>цирк</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>хореография</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>анимация</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>дизайн</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>гастрономия</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>архитектура</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>арт-менеджмент и управление</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>маркетинг</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>предпринимательство</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>народная культура</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>индустрия гостеприимства</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Выбери арт-квартал - заявка</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Принимал(а) ли участие в проектах арт-кластера раньше? - заявка</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>В каком году? - заявка</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>В каком статусе и мероприятии? - заявка</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Откуда ты узнал о Фестивале «Таврида.АРТ»? - заявка</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Укажи имя и фамилию амбассадора - заявка</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Укажи откуда узнал - заявка</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Напиши про 3-5 самых значимых достижения в твоем творческом пути - заявка</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылка на творческое задание - заявка</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылка на видеовизитку - заявка</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - заявка</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка 1</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка 2</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1041644990</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>larika15@mail.ru</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79788613690</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Матейкович</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Лариса</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ивановна</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>48</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15.05.1976</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>23.04.2024 10:49</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://s3.tavrida.art/storage/users/photos/2d70e324bda44e10b76ee7073d43ae0a.png</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Плотник Никита</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>79180589266</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>3921</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>578132</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>село Плотинное</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>ул Садовая</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Республика Крым</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>село Плотинное</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ул Садовая</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>д 3</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>ИП Матейкович Л.И.</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Директор</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Высшее, ТНУ им.Вернадского, Учитель истории, 1998</t>
+        </is>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>https://vk.com/lara_gid_crimea</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>61ff089c-f738-4275-9ad8-0b309c563b2d</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Республика Крым</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Меганомика. Путешествуй на Тавриду</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Участник программы</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>2024-04-23 23:38:00.731386</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>participation_confirmed</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>https://s3.tavrida.art/storage/event-participant-certificates/f6d9b882b5924084b5494a4e23244017.png</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Одобрена</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Участник Программы</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>a9f31297-0060-43b6-a9b8-7a1407a0e5b8</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>c5db6d05-a886-4957-96f7-bf261d46faa1</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Здравствуйте! Меня зовут Лариса Матейкович. Я гид-экскурсовод по Крыму. Коренная крымчанка. На протяжении 20 лет знакомлю гостей с нашим полуостровом. Люблю Крым и девизом моей работы всегда была фраза "Влюбляю в Крым". Я человек, который всегда стремится к новым знаниям, навыкам, открытиям. Участие в программе поможет мне активно применять полученные знания и опыт в моей работе и в жизни в целом.</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Другое: Информация была предоставленна одним из коллег.</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://s3.tavrida.art/storage/upload/0d636723454f4a0f98a393cc3e712261.pptx; </t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://expert.tavrida.art/file?link=https://s3.tavrida.art/storage/upload/1d73beb68a694a5ba1d58d20effe0a9b.mov; </t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CZ2" t="n">
+        <v>66</v>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Матевосьян Александр: 24 | </t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Матевосьян Александр: 24 | </t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Усманова Юлия: 18 | </t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/API/output.xlsx
+++ b/API/output.xlsx
@@ -1132,11 +1132,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1041644990</v>
+        <v>1448836197</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>larika15@mail.ru</t>
+          <t>joukovaaline@yandex.ru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1146,22 +1146,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79788613690</t>
+          <t>79108457977</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Матейкович</t>
+          <t>Жукова</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Лариса</t>
+          <t>Алина</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ивановна</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1170,21 +1170,21 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15.05.1976</t>
+          <t>2000-11-16</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23.04.2024 10:49</t>
+          <t>2022-05-28 23:21:29</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://s3.tavrida.art/storage/users/photos/2d70e324bda44e10b76ee7073d43ae0a.png</t>
+          <t>https://s3.tavrida.art/storage/users/photos/fdef575037894438bc642c31a727446c.jpg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тверская область</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Плотник Никита</t>
+          <t>Покрова Екатерина Викторовна</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>79180589266</t>
+          <t>79157155616.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1264,22 +1264,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>578132</t>
+          <t>749112</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>УМВД РОССИИ ПО ТВЕРСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>690002</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>село Плотинное</t>
+          <t>г Тверь</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>ул Садовая</t>
+          <t>ул Фрунзе</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тверь</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -1314,42 +1314,40 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Центральный</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Республика Крым</t>
+          <t>Тверская область</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>село Плотинное</t>
+          <t>Тверь</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>ул Садовая</t>
+          <t>Фрунзе</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>д 3</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AQ2" t="n">
+        <v>170039</v>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>ИП Матейкович Л.И.</t>
+          <t> </t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Директор</t>
+          <t> </t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -1359,7 +1357,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Высшее, ТНУ им.Вернадского, Учитель истории, 1998</t>
+          <t>Неоконченное высшее, Тверской Государственный Университет, Лингвист, 2023</t>
         </is>
       </c>
       <c r="AV2" t="n">
@@ -1367,13 +1365,12 @@
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Французский, C1
+ Английский, B2</t>
+        </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>2</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
@@ -1382,7 +1379,7 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>https://vk.com/lara_gid_crimea</t>
+          <t>https://vk.com/moorsinbloom</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1407,22 +1404,22 @@
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>61ff089c-f738-4275-9ad8-0b309c563b2d</t>
+          <t>0079a7e6-7ee0-4afa-abf4-c1f3bdab2b9b</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Республика Крым</t>
+          <t> </t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>Меганомика. Путешествуй на Тавриду</t>
+          <t>Фестиваль «Таврида.АРТ» 2022</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>Участник программы</t>
+          <t>Арт-квартал «Музыка-танцы»</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
@@ -1432,7 +1429,7 @@
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Хореографы и танцовщики (фестиваль)</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
@@ -1442,12 +1439,12 @@
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>2024-04-23 23:38:00.731386</t>
+          <t>2022-07-04 00:00:02</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>participation_confirmed</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
@@ -1472,7 +1469,7 @@
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>https://s3.tavrida.art/storage/event-participant-certificates/f6d9b882b5924084b5494a4e23244017.png</t>
+          <t> </t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
@@ -1517,7 +1514,7 @@
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>Одобрена</t>
+          <t> </t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
@@ -1527,237 +1524,237 @@
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>Участник Программы</t>
+          <t>Участник</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>a9f31297-0060-43b6-a9b8-7a1407a0e5b8</t>
+          <t>a43b7330-2ff4-4450-b715-24a269b4bd10</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>c5db6d05-a886-4957-96f7-bf261d46faa1</t>
+          <t> </t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Здравствуйте! Меня зовут Лариса Матейкович. Я гид-экскурсовод по Крыму. Коренная крымчанка. На протяжении 20 лет знакомлю гостей с нашим полуостровом. Люблю Крым и девизом моей работы всегда была фраза "Влюбляю в Крым". Я человек, который всегда стремится к новым знаниям, навыкам, открытиям. Участие в программе поможет мне активно применять полученные знания и опыт в моей работе и в жизни в целом.</t>
+          <t> </t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>Другое: Информация была предоставленна одним из коллег.</t>
+          <t> </t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CZ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>6d7b3cd0-e733-4554-a368-d581d6b6d6ac</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="CI2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CJ2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CL2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CM2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CN2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CO2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CP2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CR2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CS2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://s3.tavrida.art/storage/upload/0d636723454f4a0f98a393cc3e712261.pptx; </t>
-        </is>
-      </c>
-      <c r="CV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://expert.tavrida.art/file?link=https://s3.tavrida.art/storage/upload/1d73beb68a694a5ba1d58d20effe0a9b.mov; </t>
-        </is>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CY2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="CZ2" t="n">
-        <v>66</v>
-      </c>
-      <c r="DA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Матевосьян Александр: 24 | </t>
-        </is>
-      </c>
-      <c r="DB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Матевосьян Александр: 24 | </t>
-        </is>
-      </c>
-      <c r="DC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Усманова Юлия: 18 | </t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="DE2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="DH2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DJ2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DK2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DL2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DM2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DN2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DO2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DP2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DQ2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DR2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DS2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DT2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DU2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DV2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="DW2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="DX2" t="inlineStr">
         <is>
           <t> </t>
@@ -1770,7 +1767,7 @@
       </c>
       <c r="DZ2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ВУЗ/ССУЗ</t>
         </is>
       </c>
       <c r="EA2" t="inlineStr">
@@ -1785,17 +1782,17 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Лауреат 1-ой степени в номинации "эстрадный танец, смешанная группа" на международном конкурсе-фестивале "Невские созвездия", г. Санкт-Петербург, 2018  Лауреат 1-ой степени в номинации "танцевальное предложение, смешанная группа" на международном конкурсе-фестивале "Невские созвездия", г. Санкт-Петербург, 2018  Лауреат 2-ой степени в номинации "Уличный танец" на Гала-концерте фестиваля студенческого творчества "Студенческая весна 2021"  ТвГУ, г. Тверь, 2021  Лауреат 1-ой степени в номинации "Современная хореография, Ансамбли" на фестивале студенческого творчества "Студенческая весна 2022"  ТвГУ, г. Тверь, 2022  Лауреат 2-ой степени в направлении "Танцевальное" областного этапа фестиваля студенческого творчества "Студенческая весна 2022" г. Тверь, 2022.</t>
         </is>
       </c>
       <c r="ED2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>https://disk.yandex.ru/d/eEwN6leuxpKz7w</t>
         </is>
       </c>
       <c r="EE2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>https://disk.yandex.ru/d/eEwN6leuxpKz7w</t>
         </is>
       </c>
       <c r="EF2" t="inlineStr">
@@ -1805,7 +1802,7 @@
       </c>
       <c r="EG2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">Августинович Марта: 9 | </t>
         </is>
       </c>
       <c r="EH2" t="inlineStr">
